--- a/config_6.8/fake_data_server.xlsx
+++ b/config_6.8/fake_data_server.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -34,55 +34,58 @@
     <t>qfhl_lottery</t>
   </si>
   <si>
+    <t>美的空调</t>
+  </si>
+  <si>
+    <t>平板电脑</t>
+  </si>
+  <si>
+    <t>可乐12瓶</t>
+  </si>
+  <si>
+    <t>亲嘴烧30袋</t>
+  </si>
+  <si>
+    <t>抽纸五包</t>
+  </si>
+  <si>
+    <t>800福利券</t>
+  </si>
+  <si>
+    <t>100万金币</t>
+  </si>
+  <si>
+    <t>50万金币</t>
+  </si>
+  <si>
+    <t>100福利券</t>
+  </si>
+  <si>
+    <t>10万金币</t>
+  </si>
+  <si>
+    <t>100话费碎片</t>
+  </si>
+  <si>
+    <t>8万小游戏币</t>
+  </si>
+  <si>
+    <t>qfhl_1_lottery</t>
+  </si>
+  <si>
+    <t>金龙鱼油900ml</t>
+  </si>
+  <si>
+    <t>椰汁24盒</t>
+  </si>
+  <si>
+    <t>美的电火锅</t>
+  </si>
+  <si>
+    <t>cjdb_1_lottery</t>
+  </si>
+  <si>
     <t>华为手机</t>
-  </si>
-  <si>
-    <t>运动手环</t>
-  </si>
-  <si>
-    <t>可乐12瓶</t>
-  </si>
-  <si>
-    <t>猴菇饼干</t>
-  </si>
-  <si>
-    <t>卷纸16卷</t>
-  </si>
-  <si>
-    <t>800福利券</t>
-  </si>
-  <si>
-    <t>100万金币</t>
-  </si>
-  <si>
-    <t>50万金币</t>
-  </si>
-  <si>
-    <t>100福利券</t>
-  </si>
-  <si>
-    <t>10万金币</t>
-  </si>
-  <si>
-    <t>100话费碎片</t>
-  </si>
-  <si>
-    <t>8万小游戏币</t>
-  </si>
-  <si>
-    <t>qfhl_1_lottery</t>
-  </si>
-  <si>
-    <t>金龙鱼大米</t>
-  </si>
-  <si>
-    <t>索尼耳机</t>
-  </si>
-  <si>
-    <t>旅行箱</t>
-  </si>
-  <si>
-    <t>cjdb_1_lottery</t>
   </si>
   <si>
     <t>1亿金币</t>
@@ -141,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -155,6 +158,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -163,7 +181,85 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,60 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -238,54 +280,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,6 +294,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -308,187 +311,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,16 +506,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +525,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,40 +569,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,10 +610,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,133 +622,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,8 +1077,8 @@
   <sheetPr/>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1320,7 +1323,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1334,7 +1337,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>13</v>
@@ -1348,7 +1351,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>13</v>
@@ -1362,7 +1365,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>13</v>
@@ -1376,7 +1379,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>13</v>
@@ -1390,7 +1393,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1404,7 +1407,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>13</v>
@@ -1418,7 +1421,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>13</v>
@@ -1432,7 +1435,7 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1446,7 +1449,7 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>13</v>
@@ -1457,10 +1460,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -1471,10 +1474,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28">
         <v>13</v>
@@ -1485,10 +1488,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E29">
         <v>13</v>
@@ -1499,10 +1502,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E30">
         <v>13</v>
@@ -1513,10 +1516,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E31">
         <v>13</v>
@@ -1527,10 +1530,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -1541,10 +1544,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E33">
         <v>13</v>
@@ -1555,10 +1558,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E34">
         <v>13</v>
@@ -1569,10 +1572,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -1583,10 +1586,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E36">
         <v>13</v>
